--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_498__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_498__Reeval_Halton_Modell_1.3.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>73.55916595458984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.61574554443359</c:v>
+                  <c:v>67.61575317382812</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>75.12336730957031</c:v>
@@ -6017,13 +6017,13 @@
                   <c:v>42.9488525390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.66123580932617</c:v>
+                  <c:v>24.66123199462891</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>67.24661254882812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.40776062011719</c:v>
+                  <c:v>74.40775299072266</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>36.66429901123047</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>70.12942504882812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.84416961669922</c:v>
+                  <c:v>74.84417724609375</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43.76866912841797</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>74.45894622802734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.79572296142578</c:v>
+                  <c:v>95.79571533203125</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>58.50267028808594</c:v>
@@ -6071,7 +6071,7 @@
                   <c:v>87.5687255859375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>61.40282440185547</c:v>
+                  <c:v>61.40283203125</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>68.30489349365234</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>68.55680084228516</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>91.04063415527344</c:v>
+                  <c:v>91.04064178466797</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44.87374877929688</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>72.05757904052734</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.68842315673828</c:v>
+                  <c:v>34.68841934204102</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>55.14166259765625</c:v>
@@ -6131,10 +6131,10 @@
                   <c:v>74.22460174560547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>87.88803863525391</c:v>
+                  <c:v>87.88804626464844</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.49769592285156</c:v>
+                  <c:v>34.4976921081543</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>79.69762420654297</c:v>
@@ -6176,7 +6176,7 @@
                   <c:v>90.43405914306641</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50.01800537109375</c:v>
+                  <c:v>50.01801300048828</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>76.68613433837891</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>78.49724578857422</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>73.45112609863281</c:v>
+                  <c:v>73.45113372802734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>58.1033</v>
       </c>
       <c r="F4">
-        <v>67.61574554443359</v>
+        <v>67.61575317382812</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>24.66123580932617</v>
+        <v>24.66123199462891</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>66.7122</v>
       </c>
       <c r="F14">
-        <v>74.40776062011719</v>
+        <v>74.40775299072266</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>80.0192</v>
       </c>
       <c r="F23">
-        <v>74.84416961669922</v>
+        <v>74.84417724609375</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>95.79572296142578</v>
+        <v>95.79571533203125</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>53.3083</v>
       </c>
       <c r="F30">
-        <v>61.40282440185547</v>
+        <v>61.40283203125</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>91.84520000000001</v>
       </c>
       <c r="F42">
-        <v>91.04063415527344</v>
+        <v>91.04064178466797</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>30.2573</v>
       </c>
       <c r="F47">
-        <v>34.68842315673828</v>
+        <v>34.68841934204102</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>88.188</v>
       </c>
       <c r="F50">
-        <v>87.88803863525391</v>
+        <v>87.88804626464844</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>32.7716</v>
       </c>
       <c r="F51">
-        <v>34.49769592285156</v>
+        <v>34.4976921081543</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>44.5242</v>
       </c>
       <c r="F65">
-        <v>50.01800537109375</v>
+        <v>50.01801300048828</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>67.63</v>
       </c>
       <c r="F101">
-        <v>73.45112609863281</v>
+        <v>73.45113372802734</v>
       </c>
     </row>
     <row r="102" spans="1:6">
